--- a/results/mod2.lrgen.eff.COMB.xlsx
+++ b/results/mod2.lrgen.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0668409705381669</v>
+        <v>-0.066839351651475</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0338809673234718</v>
+        <v>0.0338808245222333</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.13324644625355</v>
+        <v>-0.133244547481574</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.000435494822783863</v>
+        <v>-0.000434155821376181</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.97281765600185</v>
+        <v>-1.9727781892561</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0485163408428659</v>
+        <v>0.0485208391505847</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0671915327642236</v>
+        <v>-0.0671935896103557</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0326156453812973</v>
+        <v>0.0326155345157584</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.131117023044096</v>
+        <v>-0.131118862597765</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00326604248435071</v>
+        <v>-0.00326831662294629</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.06010127896329</v>
+        <v>-2.06017134497338</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0393888596459404</v>
+        <v>0.0393821632756282</v>
       </c>
     </row>
   </sheetData>
